--- a/sample_excel_files/MasterGallerySubmission_soft.xlsx
+++ b/sample_excel_files/MasterGallerySubmission_soft.xlsx
@@ -200,9 +200,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6222222222222"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2074074074074"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -305,9 +305,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.2407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8074074074074"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -438,9 +438,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0925925925926"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8740740740741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -550,14 +550,14 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.2407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8074074074074"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
